--- a/banco/ESTAT.xlsx
+++ b/banco/ESTAT.xlsx
@@ -1,16 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brothers\Desktop\ESTAT\2023.2\Projetos\PF23031 - Denise\pf23031-DENISE\banco\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AF308B-F029-474F-AE92-C03B3148DE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="8265"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUPRA" sheetId="1" r:id="rId1"/>
     <sheet name="INFRA" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -89,8 +105,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,26 +167,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,9 +232,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,9 +266,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,9 +318,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -451,52 +511,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="8" customWidth="1"/>
     <col min="2" max="13" width="9.140625" style="8"/>
     <col min="14" max="14" width="16" style="2" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="13"/>
+    <col min="15" max="16" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="11"/>
+      <c r="M1" s="12"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
@@ -536,7 +596,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -579,7 +639,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -622,7 +682,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -665,7 +725,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -708,7 +768,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -751,7 +811,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -794,7 +854,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -837,7 +897,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -880,7 +940,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -923,7 +983,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -966,7 +1026,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1009,7 +1069,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1052,7 +1112,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1095,7 +1155,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1138,7 +1198,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1181,7 +1241,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1224,7 +1284,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1267,7 +1327,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1310,7 +1370,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1353,7 +1413,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1396,7 +1456,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1439,7 +1499,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1482,7 +1542,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1525,7 +1585,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -1568,7 +1628,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -1611,7 +1671,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -1654,7 +1714,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -1697,7 +1757,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -1740,7 +1800,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -1783,7 +1843,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -1826,7 +1886,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -1868,7 +1928,7 @@
       </c>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -1910,7 +1970,7 @@
       </c>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -1952,7 +2012,7 @@
       </c>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -1994,7 +2054,7 @@
       </c>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -2036,7 +2096,7 @@
       </c>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -2078,7 +2138,7 @@
       </c>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -2120,7 +2180,7 @@
       </c>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2152,7 +2212,7 @@
         <v>1.5</v>
       </c>
       <c r="K40" s="2">
-        <v>147</v>
+        <v>14.7</v>
       </c>
       <c r="L40" s="2">
         <v>0.6</v>
@@ -2162,7 +2222,7 @@
       </c>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2204,7 +2264,7 @@
       </c>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2246,7 +2306,7 @@
       </c>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2288,7 +2348,7 @@
       </c>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2330,7 +2390,7 @@
       </c>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2372,7 +2432,7 @@
       </c>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2414,7 +2474,7 @@
       </c>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2452,7 +2512,7 @@
       <c r="M47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2494,7 +2554,7 @@
       </c>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -2536,7 +2596,7 @@
       </c>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -2578,7 +2638,7 @@
       </c>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -2620,7 +2680,7 @@
       </c>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>50</v>
       </c>
@@ -2662,7 +2722,7 @@
       </c>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>51</v>
       </c>
@@ -2704,7 +2764,7 @@
       </c>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>52</v>
       </c>
@@ -2746,7 +2806,7 @@
       </c>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>53</v>
       </c>
@@ -2788,7 +2848,7 @@
       </c>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>54</v>
       </c>
@@ -2830,7 +2890,7 @@
       </c>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>55</v>
       </c>
@@ -2871,32 +2931,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="2">
-        <f>AVERAGE(B3:B57)</f>
+        <f t="shared" ref="B58:G58" si="0">AVERAGE(B3:B57)</f>
         <v>6.5382978723404257</v>
       </c>
       <c r="C58" s="2">
-        <f>AVERAGE(C3:C57)</f>
+        <f t="shared" si="0"/>
         <v>16.917021276595744</v>
       </c>
       <c r="D58" s="2">
-        <f>AVERAGE(D3:D57)</f>
+        <f t="shared" si="0"/>
         <v>5.4945945945945933</v>
       </c>
       <c r="E58" s="2">
-        <f>AVERAGE(E3:E57)</f>
+        <f t="shared" si="0"/>
         <v>19.183783783783777</v>
       </c>
       <c r="F58" s="2">
-        <f>AVERAGE(F3:F57)</f>
+        <f t="shared" si="0"/>
         <v>3.0927777777777781</v>
       </c>
       <c r="G58" s="2">
-        <f>AVERAGE(G3:G57)</f>
+        <f t="shared" si="0"/>
         <v>18.163888888888891</v>
       </c>
       <c r="H58" s="2">
@@ -2913,7 +2973,7 @@
       </c>
       <c r="K58" s="2">
         <f>AVERAGE(K3:K57)</f>
-        <v>20.663888888888888</v>
+        <v>16.988888888888887</v>
       </c>
       <c r="L58" s="2">
         <f>AVERAGE(L4:L57)</f>
@@ -2924,54 +2984,54 @@
         <v>16.430434782608696</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11" t="s">
+      <c r="C60" s="12"/>
+      <c r="D60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11" t="s">
+      <c r="E60" s="12"/>
+      <c r="F60" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11" t="s">
+      <c r="G60" s="12"/>
+      <c r="H60" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11" t="s">
+      <c r="I60" s="12"/>
+      <c r="J60" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11" t="s">
+      <c r="K60" s="12"/>
+      <c r="L60" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M60" s="11"/>
+      <c r="M60" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="J60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="H60:I60"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2979,52 +3039,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="7" customWidth="1"/>
     <col min="2" max="5" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="16" style="13" customWidth="1"/>
+    <col min="14" max="14" width="16" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="11"/>
+      <c r="M1" s="12"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="12"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -3063,7 +3123,7 @@
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -3105,7 +3165,7 @@
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -3147,7 +3207,7 @@
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -3189,7 +3249,7 @@
       </c>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -3231,7 +3291,7 @@
       </c>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -3273,7 +3333,7 @@
       </c>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -3315,7 +3375,7 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -3357,7 +3417,7 @@
       </c>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -3399,7 +3459,7 @@
       </c>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -3441,7 +3501,7 @@
       </c>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -3483,7 +3543,7 @@
       </c>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -3525,7 +3585,7 @@
       </c>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -3567,7 +3627,7 @@
       </c>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -3609,7 +3669,7 @@
       </c>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -3651,7 +3711,7 @@
       </c>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -3693,7 +3753,7 @@
       </c>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -3735,7 +3795,7 @@
       </c>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -3777,7 +3837,7 @@
       </c>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -3819,7 +3879,7 @@
       </c>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -3861,7 +3921,7 @@
       </c>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -3903,7 +3963,7 @@
       </c>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -3945,7 +4005,7 @@
       </c>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -3987,7 +4047,7 @@
       </c>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -4029,7 +4089,7 @@
       </c>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -4071,7 +4131,7 @@
       </c>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -4113,7 +4173,7 @@
       </c>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -4155,7 +4215,7 @@
       </c>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -4197,7 +4257,7 @@
       </c>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -4239,7 +4299,7 @@
       </c>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -4281,7 +4341,7 @@
       </c>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -4323,7 +4383,7 @@
       </c>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -4365,7 +4425,7 @@
       </c>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -4407,7 +4467,7 @@
       </c>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -4449,7 +4509,7 @@
       </c>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -4491,7 +4551,7 @@
       </c>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -4533,7 +4593,7 @@
       </c>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -4575,7 +4635,7 @@
       </c>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -4617,7 +4677,7 @@
       </c>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -4659,7 +4719,7 @@
       </c>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -4701,7 +4761,7 @@
       </c>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -4743,7 +4803,7 @@
       </c>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -4785,7 +4845,7 @@
       </c>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -4827,7 +4887,7 @@
       </c>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -4869,7 +4929,7 @@
       </c>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -4911,7 +4971,7 @@
       </c>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -4953,7 +5013,7 @@
       </c>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -4995,7 +5055,7 @@
       </c>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -5037,7 +5097,7 @@
       </c>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -5079,7 +5139,7 @@
       </c>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -5121,7 +5181,7 @@
       </c>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -5163,7 +5223,7 @@
       </c>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -5205,7 +5265,7 @@
       </c>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -5247,7 +5307,7 @@
       </c>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -5289,7 +5349,7 @@
       </c>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>54</v>
       </c>
@@ -5331,7 +5391,7 @@
       </c>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>55</v>
       </c>
@@ -5373,7 +5433,7 @@
       </c>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>56</v>
       </c>
@@ -5415,7 +5475,7 @@
       </c>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>57</v>
       </c>
@@ -5457,7 +5517,7 @@
       </c>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>58</v>
       </c>
@@ -5499,7 +5559,7 @@
       </c>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>59</v>
       </c>
@@ -5541,61 +5601,61 @@
       </c>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B62" s="5">
-        <f>AVERAGE(B3:B61)</f>
+        <f t="shared" ref="B62:M62" si="0">AVERAGE(B3:B61)</f>
         <v>7.4879310344827577</v>
       </c>
       <c r="C62" s="5">
-        <f>AVERAGE(C3:C61)</f>
+        <f t="shared" si="0"/>
         <v>18.520689655172415</v>
       </c>
       <c r="D62" s="5">
-        <f>AVERAGE(D3:D61)</f>
+        <f t="shared" si="0"/>
         <v>6.1065217391304332</v>
       </c>
       <c r="E62" s="5">
-        <f>AVERAGE(E3:E61)</f>
+        <f t="shared" si="0"/>
         <v>18.928260869565214</v>
       </c>
       <c r="F62" s="5">
-        <f>AVERAGE(F3:F61)</f>
+        <f t="shared" si="0"/>
         <v>5.4717948717948728</v>
       </c>
       <c r="G62" s="5">
-        <f>AVERAGE(G3:G61)</f>
+        <f t="shared" si="0"/>
         <v>18.261538461538461</v>
       </c>
       <c r="H62" s="5">
-        <f>AVERAGE(H3:H61)</f>
+        <f t="shared" si="0"/>
         <v>5.7969696969696969</v>
       </c>
       <c r="I62" s="5">
-        <f>AVERAGE(I3:I61)</f>
+        <f t="shared" si="0"/>
         <v>19.09090909090909</v>
       </c>
       <c r="J62" s="5">
-        <f>AVERAGE(J3:J61)</f>
+        <f t="shared" si="0"/>
         <v>2.5789473684210527</v>
       </c>
       <c r="K62" s="5">
-        <f>AVERAGE(K3:K61)</f>
+        <f t="shared" si="0"/>
         <v>18.350000000000001</v>
       </c>
       <c r="L62" s="5">
-        <f>AVERAGE(L3:L61)</f>
+        <f t="shared" si="0"/>
         <v>3.2027777777777779</v>
       </c>
       <c r="M62" s="5">
-        <f>AVERAGE(M3:M61)</f>
+        <f t="shared" si="0"/>
         <v>18.258333333333333</v>
       </c>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -5611,37 +5671,37 @@
       <c r="M63" s="5"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11" t="s">
+      <c r="C64" s="12"/>
+      <c r="D64" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11" t="s">
+      <c r="E64" s="12"/>
+      <c r="F64" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11" t="s">
+      <c r="G64" s="12"/>
+      <c r="H64" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11" t="s">
+      <c r="I64" s="12"/>
+      <c r="J64" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11" t="s">
+      <c r="K64" s="12"/>
+      <c r="L64" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M64" s="11"/>
+      <c r="M64" s="12"/>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="2:14">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -5656,7 +5716,7 @@
       <c r="M65" s="5"/>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="2:14">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -5671,7 +5731,7 @@
       <c r="M66" s="5"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="2:14">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -5686,7 +5746,7 @@
       <c r="M67" s="5"/>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="2:14">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -5701,7 +5761,7 @@
       <c r="M68" s="5"/>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="2:14">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -5716,7 +5776,7 @@
       <c r="M69" s="5"/>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="2:14">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -5731,7 +5791,7 @@
       <c r="M70" s="5"/>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="2:14">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -5746,7 +5806,7 @@
       <c r="M71" s="5"/>
       <c r="N71" s="2"/>
     </row>
-    <row r="72" spans="2:14">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -5761,7 +5821,7 @@
       <c r="M72" s="5"/>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -5776,7 +5836,7 @@
       <c r="M73" s="5"/>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="2:14">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -5791,7 +5851,7 @@
       <c r="M74" s="5"/>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="2:14">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -5806,7 +5866,7 @@
       <c r="M75" s="5"/>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="2:14">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -5821,7 +5881,7 @@
       <c r="M76" s="5"/>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="2:14">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -5836,7 +5896,7 @@
       <c r="M77" s="5"/>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="2:14">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -5851,7 +5911,7 @@
       <c r="M78" s="5"/>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="2:14">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -5866,7 +5926,7 @@
       <c r="M79" s="5"/>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="2:14">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -5881,7 +5941,7 @@
       <c r="M80" s="5"/>
       <c r="N80" s="2"/>
     </row>
-    <row r="81" spans="2:14">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -5896,7 +5956,7 @@
       <c r="M81" s="5"/>
       <c r="N81" s="2"/>
     </row>
-    <row r="82" spans="2:14">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -5911,7 +5971,7 @@
       <c r="M82" s="5"/>
       <c r="N82" s="2"/>
     </row>
-    <row r="83" spans="2:14">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -5926,7 +5986,7 @@
       <c r="M83" s="5"/>
       <c r="N83" s="2"/>
     </row>
-    <row r="84" spans="2:14">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -5941,7 +6001,7 @@
       <c r="M84" s="5"/>
       <c r="N84" s="2"/>
     </row>
-    <row r="85" spans="2:14">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -5956,7 +6016,7 @@
       <c r="M85" s="5"/>
       <c r="N85" s="2"/>
     </row>
-    <row r="86" spans="2:14">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -5971,7 +6031,7 @@
       <c r="M86" s="5"/>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="2:14">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -5986,7 +6046,7 @@
       <c r="M87" s="5"/>
       <c r="N87" s="2"/>
     </row>
-    <row r="88" spans="2:14">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -6001,7 +6061,7 @@
       <c r="M88" s="5"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="2:14">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -6016,7 +6076,7 @@
       <c r="M89" s="5"/>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="2:14">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -6031,7 +6091,7 @@
       <c r="M90" s="5"/>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="2:14">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -6046,7 +6106,7 @@
       <c r="M91" s="5"/>
       <c r="N91" s="2"/>
     </row>
-    <row r="92" spans="2:14">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -6061,7 +6121,7 @@
       <c r="M92" s="5"/>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="2:14">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -6076,7 +6136,7 @@
       <c r="M93" s="5"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="2:14">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -6091,7 +6151,7 @@
       <c r="M94" s="5"/>
       <c r="N94" s="2"/>
     </row>
-    <row r="95" spans="2:14">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -6106,7 +6166,7 @@
       <c r="M95" s="5"/>
       <c r="N95" s="2"/>
     </row>
-    <row r="96" spans="2:14">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -6121,7 +6181,7 @@
       <c r="M96" s="5"/>
       <c r="N96" s="2"/>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -6136,7 +6196,7 @@
       <c r="M97" s="5"/>
       <c r="N97" s="2"/>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -6151,7 +6211,7 @@
       <c r="M98" s="5"/>
       <c r="N98" s="2"/>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -6166,19 +6226,13 @@
       <c r="M99" s="5"/>
       <c r="N99" s="2"/>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:K64"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A1:A2"/>
@@ -6186,6 +6240,12 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:K64"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
